--- a/マーケティング/中期経営計画/171215_中期経営計画_井野圭輔.xlsx
+++ b/マーケティング/中期経営計画/171215_中期経営計画_井野圭輔.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t>社名</t>
     <rPh sb="0" eb="2">
@@ -112,6 +112,418 @@
     <rPh sb="0" eb="1">
       <t>レ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲料</t>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>お菓子</t>
+  </si>
+  <si>
+    <t>家電</t>
+  </si>
+  <si>
+    <t>時計</t>
+  </si>
+  <si>
+    <t>トイレタリー</t>
+  </si>
+  <si>
+    <t>スポーツ用品</t>
+  </si>
+  <si>
+    <t>化粧品</t>
+  </si>
+  <si>
+    <t>ゲーム</t>
+  </si>
+  <si>
+    <t>住宅</t>
+  </si>
+  <si>
+    <t>1位</t>
+  </si>
+  <si>
+    <t>2位</t>
+  </si>
+  <si>
+    <t>3位</t>
+  </si>
+  <si>
+    <t>4位</t>
+  </si>
+  <si>
+    <t>5位</t>
+  </si>
+  <si>
+    <t>サントリーHD</t>
+  </si>
+  <si>
+    <t>アサヒグループHD</t>
+  </si>
+  <si>
+    <t>伊藤園</t>
+  </si>
+  <si>
+    <t>日本ハム</t>
+  </si>
+  <si>
+    <t>明治HD</t>
+  </si>
+  <si>
+    <t>味の素</t>
+  </si>
+  <si>
+    <t>山崎製パン</t>
+  </si>
+  <si>
+    <t>マルハニチロ</t>
+  </si>
+  <si>
+    <t>江崎グリコ</t>
+  </si>
+  <si>
+    <t>カルビー</t>
+  </si>
+  <si>
+    <t>森永製菓</t>
+  </si>
+  <si>
+    <t>ブルボン</t>
+  </si>
+  <si>
+    <t>日立製作所</t>
+  </si>
+  <si>
+    <t>ソニー</t>
+  </si>
+  <si>
+    <t>パナソニック</t>
+  </si>
+  <si>
+    <t>東芝</t>
+  </si>
+  <si>
+    <t>富士通</t>
+  </si>
+  <si>
+    <t>カシオ計算機</t>
+  </si>
+  <si>
+    <t>シチズンHD</t>
+  </si>
+  <si>
+    <t>セイコーHD</t>
+  </si>
+  <si>
+    <t>リズム時計工業</t>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花王</t>
+  </si>
+  <si>
+    <t>ユニ・チャーム</t>
+  </si>
+  <si>
+    <t>ライオン</t>
+  </si>
+  <si>
+    <t>アース製薬</t>
+  </si>
+  <si>
+    <t>小林製薬</t>
+  </si>
+  <si>
+    <t>アシックス</t>
+  </si>
+  <si>
+    <t>ミズノ</t>
+  </si>
+  <si>
+    <t>デサント</t>
+  </si>
+  <si>
+    <t>グローブライド</t>
+  </si>
+  <si>
+    <t>ダンロップスポーツ</t>
+  </si>
+  <si>
+    <t>資生堂</t>
+  </si>
+  <si>
+    <t>コーセー</t>
+  </si>
+  <si>
+    <t>ポーラ・オルビスHD</t>
+  </si>
+  <si>
+    <t>マンダム</t>
+  </si>
+  <si>
+    <t>任天堂</t>
+  </si>
+  <si>
+    <t>バンダイナムコHD</t>
+  </si>
+  <si>
+    <t>スクウェア・エニック…</t>
+  </si>
+  <si>
+    <t>セガサミーHD</t>
+  </si>
+  <si>
+    <t>大和ハウス工業</t>
+  </si>
+  <si>
+    <t>積水ハウス</t>
+  </si>
+  <si>
+    <t>飯田グループHD</t>
+  </si>
+  <si>
+    <t>住友林業</t>
+  </si>
+  <si>
+    <t>旭化成</t>
+  </si>
+  <si>
+    <t>2015年‐2017年経営戦略</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">継続強化する既存エリアに、アジア、アフリカ等の新たなエリアを加えた約20カ国に重点的に経営資源を投入していきます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（1）各エリアの既存重点ブランドを継続強化するとともに、消費者のニーズを捉えた新たな価値を持つ商品を提案し、需要を創造していきます。そのために、研究開発、マーケティング、生産技術の絶えざる革新に取り組んでいきます。
+（2）エリアに合わせた流通基盤、生産基盤の更なる強化に注力します。
+流通基盤の強化の手段として、M&amp;Aも積極的に検討していきます。
+（3）コスト削減に継続して取り組み、成長投資に必要な原資を確保します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.suntory.com/softdrink/ir/library/pdf/2015_00_Full.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.suntory.co.jp/softdrink/ir/management/plan.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将来への夢がふくらむ３年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コカ・コーライーストジャパン
+統合により「コカ・コーラボトラーズジャパン」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「清涼飲料事業」
+「ヘルスケア・スキンケア事業」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜清涼飲料事業 基本戦略＞
+1 既存ビジネスの徹底強化による収益力向上
+2 新たな成長事業の構築
+3 バリューチェーンプロセスの進化
+4 高品質・低コストオペレーション体制の実現
+5 適切な資本（ヒト・モノ・カネ）投下
+6 ＣＳＶの推進
+7 組織能力および経営基盤の強化
+8 社員の働きがい向上
+＜ヘルスケア・スキンケア事業 基本戦略＞
+1 既存事業の強化による収益力向上
+2 事業領域拡大による売上げ向上
+3 高品質・低コストオペレーションへの変革
+4 成長につながる投資への配分　　
+5 ガバナンスおよびリスク予防体制の強化
+6 新たな人事制度の構築・人材育成の強化による組織風土の改革
+7 営業施策立案につながる情報システムの整備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ccbji.co.jp/ir/pdf/ja/annualreview/ccw/an_2015.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持続的成長を目指した“企業価値向上経営”の深化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">① 国内収益基盤の盤石化と国際事業の成長エンジン化による「稼ぐ力」の強化 
+② 資本コストを踏まえた資産・資本効率の向上 
+③ サステナビリティの向上を目指したＥＳＧへの取り組み強化 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒類事業
+◆グループ最大のキャッシュカウビジネスとして、高い収益性の維持・向上を図る
+◆グループ第２の柱として、差別化されたポジションの確立により利益ある成長を実現する
+◆「強み」への集中と事業統合を梃にして、グループの次世代の成長基盤を育成する
+◆「強み」を活かすグローバルな成長基盤を拡大し、グループの持続的な成長を牽引する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年-2022年 中長期経営計画</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「「世界のティーカンパニー」へ」
+「国内総合飲料メーカー、
+新規事業領域への挑戦」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界のティーカンパニー」へ
+1. 「お～いお茶」と「ITOEN」のグローバル展開
+2. 世界・国内緑茶市場No.1
+3. 世界に通用するティーテイスターの育成
+国内総合飲料メーカー、新規事業領域への挑戦
+1. ブランド強化、新ブランドの育成
+2. 総顧客数の拡大、国内収益基盤の強化
+3. 新規事業への挑戦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コカ・コーラウエスト
+（コカコーラ・イーストと統合された：上記）</t>
+    <rPh sb="23" eb="25">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変革による骨太なビジネスモデルの構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「国内事業の持続的な収益力強化」
+「海外売上高の早期拡大」
+「戦略的ブランディングの推進」
+「グループ横断型コーポレート機能の強化」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「国内事業の競争優位性の確率」
+「グローバル企業への加速」</t>
+    <rPh sb="1" eb="5">
+      <t>コクナイジギョウノ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>キョウソウユウイセイノカクリツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「優位事業の強化と新たな成長への挑戦」
+「環境変化に対応しうる収益力の強化」
+「グローバル展開の推進」
+「経営基盤の進化」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP UP17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「食品セグメント」
+「医療品セグメント」</t>
+    <rPh sb="1" eb="3">
+      <t>ショクヒn</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>iryouhin</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.meiji.com/investor/library/annualreport/2015/pdf/annualreport_2015_ja_all.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.meiji.com/management/project/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ASVを通じたサステナブルな成長の実現</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「コモディティ事業からの抜本的な転換」
+「事業横断でのサステナブルバリューチェーンの構築」
+「食品の地域ポートフォリオ強化を通じた確かな成長」
+「新たな事業の柱の構築による事業ポートフォリオの拡張」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「食品」
+「アミノサイエンス」</t>
+    <rPh sb="1" eb="3">
+      <t>ショクヒn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ajinomoto.com/jp/ir/event/midium_term/main/02/teaserItems1/00/linkList/0/link/17-19presentation-J.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.nipponham.co.jp/ir/policy/plan.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Challenge Toward 2017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット経営の推進による 収益力の拡大
+1.成長戦略の遂行
+2.グローバル領域での収益拡大
+3.財務体質の改善</t>
+    <rPh sb="22" eb="25">
+      <t>」</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループガバナンス体制の再構築による信頼の回復
+1.食品安全管理を含むの再構築
+2.危機管理体制の再構築
+3.グループガバナンスの強化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.maruha-nichiro.co.jp/corporate/management/policy/pdf/Challenge_toward2017_3.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.maruha-nichiro.co.jp/corporate/ir/library/pdf/report070.pdf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -162,15 +574,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -236,13 +672,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -277,11 +803,174 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="67" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="67" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="67" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="84">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="83" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -298,15 +987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:colOff>563033</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83020</xdr:rowOff>
+      <xdr:rowOff>59501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5257800</xdr:colOff>
+      <xdr:colOff>5046133</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1951594</xdr:rowOff>
+      <xdr:rowOff>1928075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -323,8 +1012,318 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15379700" y="565620"/>
+          <a:off x="16661459" y="541631"/>
           <a:ext cx="4483100" cy="1868574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1862890</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4103125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1664138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16913120" y="2879656"/>
+          <a:ext cx="2240235" cy="1543448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145977</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>525517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5964730</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3955976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16422414" y="5824483"/>
+          <a:ext cx="5818753" cy="3430459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5332845</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2181978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16954500" y="10248900"/>
+          <a:ext cx="4647045" cy="2067678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5350934</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2100761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16899467" y="12513733"/>
+          <a:ext cx="4758267" cy="2016095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2475213</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3494160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>916609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18753300" y="15624312"/>
+          <a:ext cx="1018947" cy="764210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1841501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4103641</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1627187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18110201" y="16556566"/>
+          <a:ext cx="2262140" cy="1555221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1131044</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4314320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2186608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17409131" y="18362543"/>
+          <a:ext cx="3183276" cy="2089978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1424608</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4329043</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1900031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17702695" y="20910773"/>
+          <a:ext cx="2904435" cy="1795171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -642,21 +1641,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="6" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="68.140625" customWidth="1"/>
+    <col min="8" max="16384" width="12.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="38" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>2</v>
@@ -676,8 +1678,11 @@
       <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="160" x14ac:dyDescent="0.3">
+      <c r="H1" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="160" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,665 +1703,968 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="200" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="380" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="140" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="160" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="B15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
+      <c r="B24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="B26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
+      <c r="B27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+      <c r="B28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
+      <c r="B30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="B32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
+      <c r="B36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+      <c r="B38" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+      <c r="B40" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
+      <c r="B42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
+      <c r="B44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="29">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5"/>
+      <c r="B45" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
+      <c r="B46" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5"/>
+      <c r="B48" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5"/>
+      <c r="B49" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
+      <c r="B50" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="24">
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="B52" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
+      <c r="B54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
+      <c r="B55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
+      <c r="B56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="29">
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
+      <c r="B57" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
+      <c r="B58" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5"/>
+      <c r="B59" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
+      <c r="B60" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5"/>
+      <c r="B61" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5"/>
+      <c r="B62" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
@@ -3582,8 +4890,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="H11" r:id="rId3"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="I14" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
